--- a/Feast data/Yield_Baselines_Yihe.xlsx
+++ b/Feast data/Yield_Baselines_Yihe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3597BBC7-C2AA-46A0-9445-199292F1FD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7E47E7-92E4-45AC-9C5E-DE1B2AB9A198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F8C7DA5F-644D-44C0-8640-311A98D953EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Baseline</t>
   </si>
@@ -72,10 +72,7 @@
     <t xml:space="preserve">*Leitner et al. (2020) </t>
   </si>
   <si>
-    <t>* Estimated based on Njarui et al. (2021)</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>*Estimated based on Njarui et al. (2021)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +461,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,8 +508,8 @@
       <c r="B4" s="5">
         <v>0.93088743776003668</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+      <c r="C4" s="4">
+        <v>3</v>
       </c>
       <c r="D4" s="3"/>
       <c r="G4" t="s">
@@ -526,8 +523,8 @@
       <c r="B5" s="5">
         <v>22.507153237094251</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
+      <c r="C5" s="4">
+        <v>3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -538,8 +535,8 @@
       <c r="B6" s="5">
         <v>5.226495184730954</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+      <c r="C6" s="4">
+        <v>3</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -550,8 +547,8 @@
       <c r="B7" s="5">
         <v>12.000047402997373</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
+      <c r="C7" s="4">
+        <v>3</v>
       </c>
       <c r="D7" s="3"/>
     </row>
